--- a/quechua.xlsx
+++ b/quechua.xlsx
@@ -1,66 +1,285 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n320\Desktop\verbos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n320\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178191AF-1CFA-438A-A87B-391DFEA1ED5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E99AE42-1960-4F8B-A2B1-B70DA18CAE3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="pronombres" sheetId="1" r:id="rId1"/>
+    <sheet name="presentesimple" sheetId="2" r:id="rId2"/>
+    <sheet name="presenteprogresivo" sheetId="3" r:id="rId3"/>
+    <sheet name="presentehabitual" sheetId="4" r:id="rId4"/>
+    <sheet name="pasadoexperimentadosimple" sheetId="5" r:id="rId5"/>
+    <sheet name="pasadoexperimentadoprogresivo" sheetId="6" r:id="rId6"/>
+    <sheet name="pasadoexperimentadohabitual" sheetId="7" r:id="rId7"/>
+    <sheet name="pasadonoexperimentadosimple" sheetId="8" r:id="rId8"/>
+    <sheet name="pasadonoexperimentadoprogresivo" sheetId="9" r:id="rId9"/>
+    <sheet name="pasadonoexperimentadohabitual" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>quechua</t>
-  </si>
-  <si>
-    <t>español</t>
-  </si>
-  <si>
-    <t>tiyay</t>
-  </si>
-  <si>
-    <t>vivir</t>
-  </si>
-  <si>
-    <t>mikuy</t>
-  </si>
-  <si>
-    <t>comer</t>
-  </si>
-  <si>
-    <t>puñuy</t>
-  </si>
-  <si>
-    <t>dormir</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
+  <si>
+    <t>pronombres</t>
+  </si>
+  <si>
+    <t>singular</t>
+  </si>
+  <si>
+    <t>plural</t>
+  </si>
+  <si>
+    <t>primera inclusiva</t>
+  </si>
+  <si>
+    <t>ñuqa</t>
+  </si>
+  <si>
+    <t>ñuqanchik</t>
+  </si>
+  <si>
+    <t>primera exclusiva</t>
+  </si>
+  <si>
+    <t>ñuqayku</t>
+  </si>
+  <si>
+    <t>segunda</t>
+  </si>
+  <si>
+    <t>qam</t>
+  </si>
+  <si>
+    <t>qamkuna</t>
+  </si>
+  <si>
+    <t>tercera</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>paykuna</t>
+  </si>
+  <si>
+    <t>persona</t>
+  </si>
+  <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>nchik</t>
+  </si>
+  <si>
+    <t>niku</t>
+  </si>
+  <si>
+    <t>nki</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>nku</t>
+  </si>
+  <si>
+    <t>chkani</t>
+  </si>
+  <si>
+    <t>chkanchik</t>
+  </si>
+  <si>
+    <t>chkaniku</t>
+  </si>
+  <si>
+    <t>chkanki</t>
+  </si>
+  <si>
+    <t>chkankichik</t>
+  </si>
+  <si>
+    <t>chkan</t>
+  </si>
+  <si>
+    <t>chkanku</t>
+  </si>
+  <si>
+    <t>qkani</t>
+  </si>
+  <si>
+    <t>qkanchik</t>
+  </si>
+  <si>
+    <t>qkaniku</t>
+  </si>
+  <si>
+    <t>qkanki</t>
+  </si>
+  <si>
+    <t>qkankichik</t>
+  </si>
+  <si>
+    <t>qmi</t>
+  </si>
+  <si>
+    <t>qkanku</t>
+  </si>
+  <si>
+    <t>rqani</t>
+  </si>
+  <si>
+    <t>rqanchik</t>
+  </si>
+  <si>
+    <t>rqaniku</t>
+  </si>
+  <si>
+    <t>rqanki</t>
+  </si>
+  <si>
+    <t>rqankichik</t>
+  </si>
+  <si>
+    <t>rqan</t>
+  </si>
+  <si>
+    <t>rqanku</t>
+  </si>
+  <si>
+    <t>chkarqani</t>
+  </si>
+  <si>
+    <t>chkarqanchik</t>
+  </si>
+  <si>
+    <t>chkarqaniku</t>
+  </si>
+  <si>
+    <t>chkarqanki</t>
+  </si>
+  <si>
+    <t>chkarqankichik</t>
+  </si>
+  <si>
+    <t>chkarqan</t>
+  </si>
+  <si>
+    <t>chkarqanku</t>
+  </si>
+  <si>
+    <t>qkarqani</t>
+  </si>
+  <si>
+    <t>qkarqanchik</t>
+  </si>
+  <si>
+    <t>qkarqaniku</t>
+  </si>
+  <si>
+    <t>qkarqanki</t>
+  </si>
+  <si>
+    <t>qkarqankichik</t>
+  </si>
+  <si>
+    <t>qkarqan</t>
+  </si>
+  <si>
+    <t>qkarqanku</t>
+  </si>
+  <si>
+    <t>sqani</t>
+  </si>
+  <si>
+    <t>sqanchik</t>
+  </si>
+  <si>
+    <t>sqaniku</t>
+  </si>
+  <si>
+    <t>sqanki</t>
+  </si>
+  <si>
+    <t>sqankichik</t>
+  </si>
+  <si>
+    <t>sqan</t>
+  </si>
+  <si>
+    <t>sqank</t>
+  </si>
+  <si>
+    <t>chkasqani</t>
+  </si>
+  <si>
+    <t>chkasqanchik</t>
+  </si>
+  <si>
+    <t>chkasqaniku</t>
+  </si>
+  <si>
+    <t>chkasqanki</t>
+  </si>
+  <si>
+    <t>chkasqankichik</t>
+  </si>
+  <si>
+    <t>chkasqan</t>
+  </si>
+  <si>
+    <t>chkasqanku</t>
+  </si>
+  <si>
+    <t>qkasqani</t>
+  </si>
+  <si>
+    <t>qkasqanchik</t>
+  </si>
+  <si>
+    <t>qkasqaniku</t>
+  </si>
+  <si>
+    <t>qkasqanki</t>
+  </si>
+  <si>
+    <t>qkasqankichik</t>
+  </si>
+  <si>
+    <t>qkasqan</t>
+  </si>
+  <si>
+    <t>qkasqanku</t>
+  </si>
+  <si>
+    <t>nkichik</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -84,8 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -104,116 +324,56 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4285F4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="EA4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="FBBC04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="34A853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="FF6D01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="1155CC"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="1155CC"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -356,54 +516,720 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
